--- a/biology/Botanique/Onoclea/Onoclea.xlsx
+++ b/biology/Botanique/Onoclea/Onoclea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Onoclea est un genre de fougère, classé parfois dans la famille des Woodsiaceae (c'est le cas de l'index IPNI), famille souvent incluse dans celle des Dryopteridaceae (cas des index GRIN et Tropicos).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine du mot Onoclea est incertaine, probablement du grec onokleia langue d'âne, terme attribué à ce genre par Carl von Linné.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d'Onoclea disposent d'un rhizome rampant, formant sans cesse de nouvelles plantes et portant deux sortes de frondes : les unes purement végétatives, vertes, foliacées, disparaissant à l'époque des gelées, les autres fructifères, rigides, persistant tout l'hiver, à divisions primaires contractées en un chapelet d'enveloppes sphériques qui dissimulent les spores.
 </t>
@@ -573,7 +589,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre a connu de multiples remaniements conduisant, selon les index, d'une seule espèce (GRIN) à 57 références (IPNI et Tropicos). À cela s'ajoute un problème de nombreux synonymes. La liste ci-dessous est tirée des index IPNI et Tropicos.
 Onoclea attenuata Sw. (1801)
